--- a/System_development/Van-Hove/PCB_design/NMR Control Board V 0.4.4/PCB_Control_Board_V_0.4.4_BoM.xlsx
+++ b/System_development/Van-Hove/PCB_design/NMR Control Board V 0.4.4/PCB_Control_Board_V_0.4.4_BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF88B9E-2EA1-471A-8E7C-F267FBD9405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D575A664-CD39-4906-A2AD-C6E71F659FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Total Cost</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Individual Cost</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>IC REG LINEAR 5V 1A DPAK</t>
   </si>
   <si>
@@ -180,6 +177,144 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/onsemi/NCP715SQ18T2G/5257856?s=N4IgTCBcDaIHIGEAKB2AjAVgM4EU0A4AVMAcRAF0BfIA</t>
+  </si>
+  <si>
+    <t>Vendor 1</t>
+  </si>
+  <si>
+    <t>Vendor 2</t>
+  </si>
+  <si>
+    <t>Vendor 3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adam-tech/RF2-04A-T-00-50-G/9830588</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rf-solutions/CON-SMA-EDGE-S/5845767</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/infineon-technologies/BAT6404E6433HTMA1/1280948?s=N4IgTCBcDaIEIEEAqA2ALABjQUXQZjwAkkBZBARhAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/onsemi/1N4148-T50R/978510?s=N4IgTCBcDaIIwDkAsckA4C0AVArABgCUQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL31A106KQHNNNE/3886737?s=N4IgTCBcDaIMIBkDMBGAgigDANgNIEUAJAOVIFEQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL31B334KBFNNNE/3886796?s=N4IgTCBcDaIMIBkDMBGAQkpAWA0mgYgHLECiIAugL5A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/johanson-dielectrics-inc/VPDD202W102K1GV001E/1556359?s=N4IgTCBcDaIGoAUAiSwAYwHUCMGDS2A4nGmtgKIgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL31B104KBCNNNC/3886675?s=N4IgTCBcDaIMIBkDMBGAQigDAFgNJrgDli4QBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL31B105KAHNNNE/3886755?s=N4IgTCBcDaIMIBkDMBGAQigDAVgNIEEAJAOVIFEQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/onsemi/NCP1117DT50RKG?qs=Gev%252BmEvV0iaGLyZQ1w6kFw%3D%3D&amp;srsltid=AfmBOorm3HJC9LJ_FpA0ZSoT3NoLt8lBV9SOBLak7v_5jOgS_GBCqXY6</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/onsemi/MC7812ABD2TR4G?qs=%252B9%2Fcbd0IE0Re2wNB1j%2FK%2FQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LM828M5-NOPB?qs=QbsRYf82W3GhaXohGcEtsw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Mini-Circuits/ADP-2-1W%2b?qs=xZ%2FP%252Ba9zWqaS05pgXAHsTw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Mini-Circuits/ADE-6%2b?qs=xZ%2FP%252Ba9zWqaicAj6d16bRw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Analog-Devices/ADG901BRMZ-REEL7?qs=BpaRKvA4VqGtXy7JBFLGiA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/LM4565FV-GE2?qs=4v%252BiZTmLVHEiNti1hBVbUQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/onsemi/NCP715SQ18T2G?qs=dbuNSGnowt1%2Falybo7mueQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B105KAHNNNE?qs=349EhDEZ59p5FHnPIxx1UQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B104KBCNNNC?qs=349EhDEZ59oHABbyGq1iKA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Johanson-Dielectrics/VPDD202W102K1GV001E?qs=jRuttqqUwMTOgYz3gUWN7g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B334KBFNNNE?qs=349EhDEZ59qKxGVb2dY2bQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31A106KQHNNNE?qs=349EhDEZ59pJO7ndoI%2FMkg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/onsemi-Fairchild/1N4148-T50R?qs=0lQeLiL1qyZS6rosZp7Ehg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Infineon-Technologies/BAT6404E6433HTMA1?qs=K00xGehIlju31KA4KMtgCQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/RF-Solutions/CON-SMA-EDGE-S?qs=UkDUCjYnTB3a941HfsgOOA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Adam-Tech/RF2-04A-T-00-50-G?qs=HoCaDK9Nz5dc3qwWN4DjGA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Low-Dropout-Regulators-LDO_ON-Semicon_NCP1117DT50RKG_ON-Semicon-ON-NCP1117DT50RKG_C152470.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Voltage-Regulators-Linear-Low-Drop-Out-LDO-Regulators_onsemi-MC7812ABD2TR4G_C152478.html?s_z=n_MC7812ABD2TR4G</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Charge-Pumps_Texas-Instruments-LM828M5-NOPB_C471872.html?s_z=n_LM828M5</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/RF-Power-Splitters-Combiners_Mini-Circuits-ADP-2-1W_C879865.html?s_z=n_ADP-2-1W%252B</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/RF-Mixers_Mini-Circuits-ADE-6_C3176578.html?s_z=n_ADE-6%252B</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/RF-Switches_Analog-Devices-ADG901BRMZ-REEL7_C206802.html?s_z=n_ADG901BRMZ-REEL7</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/en/details/lm4565fv-ge2/smd-operational-amplifiers/rohm-semiconductor/</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/onsemi/ncp715sq18t2g/ic-ldo-volt-reg-0-05a-1-8v-sc/dp/62X8355?CMP=AFC-ECIA</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL31B105KAHNNNE_C28322.html?s_z=n_CL31B105KAHNNNE</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL31B104KBCNNNC_C24497.html?s_z=n_CL31B104KBCNNNC</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/johanson-dielectrics/202r18w102kv4e/ceramic-capacitor-1000pf-2000v/dp/01H9029</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL31B334KBFNNNE_C307572.html?s_z=n_CL31B334KBFNNNE</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/samsung-electro-mechanics/cl31a106kbhnnne/cap-10uf-50v-mlcc-1206/dp/82AC9486</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/onsemi/1n4148-t50r/small-signal-sw-diode-100v-0-2a/dp/48AC1509</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/infineon/bat6404e6433htma1/diode-schottky-aec-q101-40v-sot23/dp/68AC4382</t>
+  </si>
+  <si>
+    <t>https://sa.rsdelivers.com/product/rf-solutions/con-sma-edge-s/rf-solutions-con-series-jack-sma-connector-solder/1258191?srsltid=AfmBOorKtUPg18WFoD31Vi2GhuiHceVmlkenSwGlArAdXQb6uUC_Ka5t</t>
+  </si>
+  <si>
+    <t>https://www.heilind.com/adtrf2-04a-t-00-50-g.html?&amp;utm_source=octopart&amp;utm_medium=buy</t>
   </si>
 </sst>
 </file>
@@ -243,6 +378,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +714,11 @@
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="146.5703125" customWidth="1"/>
+    <col min="7" max="7" width="168.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -595,15 +735,21 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -615,15 +761,21 @@
         <v>0.52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -635,15 +787,21 @@
         <v>0.77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -655,15 +813,21 @@
         <v>1.25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -675,15 +839,21 @@
         <v>11.55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -695,15 +865,21 @@
         <v>10.8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -715,15 +891,21 @@
         <v>4.03</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -735,15 +917,21 @@
         <v>0.61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -755,15 +943,21 @@
         <v>0.25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -774,14 +968,22 @@
       <c r="E10">
         <v>0.39</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -792,14 +994,22 @@
       <c r="E11">
         <v>0.33</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -810,14 +1020,22 @@
       <c r="E12">
         <v>0.38</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -828,14 +1046,22 @@
       <c r="E13">
         <v>0.18</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -846,14 +1072,22 @@
       <c r="E14">
         <v>0.76</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -864,14 +1098,22 @@
       <c r="E15">
         <v>0.4</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -882,14 +1124,22 @@
       <c r="E16">
         <v>1.38</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -900,14 +1150,22 @@
       <c r="E17">
         <v>10.14</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -918,9 +1176,17 @@
       <c r="E18">
         <v>11.04</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -939,8 +1205,51 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{58EB83B7-5748-4AFA-9A18-DC92D6A5C3A5}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{63324E66-EECF-420A-939D-9FC410ECA74B}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{54F3D8AB-A6FA-4E4F-86DB-421A97E77B63}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{A3BA962D-F109-4E59-B8E9-240AF405D6C7}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{218AF3FE-0BD0-4048-A3E1-159D9AAE0B3C}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{0BFA9F3D-5219-4B8C-B846-B76FFD0BF1F0}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{2B6DAD25-A022-47B4-97A4-D1F53A16C922}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{E67D244A-F5D5-478D-A098-E4333EDFDF4B}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{5705BC2E-3933-42BB-9D8D-A4561DE31E87}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{09FEC92A-8E57-4745-B2B1-CB173FE342AF}"/>
+    <hyperlink ref="F11" r:id="rId16" xr:uid="{D85B8645-75F4-4DBE-96B6-5E264C73B64D}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{B42BB367-E930-4F01-8984-E1B2FFC1315A}"/>
+    <hyperlink ref="G2" r:id="rId18" xr:uid="{AC63E67E-A0B3-4A54-B1EA-D69352B35E07}"/>
+    <hyperlink ref="G3" r:id="rId19" xr:uid="{28025270-E5D5-4156-B3FB-9CAB7029620E}"/>
+    <hyperlink ref="G4" r:id="rId20" xr:uid="{7BF3CEDE-E935-45C4-AB8D-C785568BAD81}"/>
+    <hyperlink ref="G5" r:id="rId21" xr:uid="{3ECF6EA4-A634-4F9B-B1AB-0A182259698F}"/>
+    <hyperlink ref="G6" r:id="rId22" xr:uid="{7412DBB7-8AF9-4525-B14C-686F7197DFE7}"/>
+    <hyperlink ref="G7" r:id="rId23" xr:uid="{F9D5EEB3-CFF4-4E31-B844-D1A3572D9FA9}"/>
+    <hyperlink ref="G8" r:id="rId24" xr:uid="{63C8E88F-8E99-4823-B700-9B5B55D315CF}"/>
+    <hyperlink ref="G9" r:id="rId25" xr:uid="{C8D10D9F-D84E-41EB-AA2A-0C871FD32342}"/>
+    <hyperlink ref="G10" r:id="rId26" xr:uid="{85687F6A-272F-45B5-8586-33E1B62F6EB3}"/>
+    <hyperlink ref="G11" r:id="rId27" xr:uid="{EA668B17-66D9-4914-8CCA-6270540537CB}"/>
+    <hyperlink ref="G12" r:id="rId28" xr:uid="{A95E50CD-0F2B-42EB-A612-F26689DBB1BD}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{A47CD37A-AB72-47AE-B101-3D17B982BBA4}"/>
+    <hyperlink ref="G14" r:id="rId30" xr:uid="{6157CC72-7B08-409E-9726-7860E43890F2}"/>
+    <hyperlink ref="G15" r:id="rId31" xr:uid="{5170F63F-E451-4F56-9E16-342D86EBC5EE}"/>
+    <hyperlink ref="G16" r:id="rId32" xr:uid="{68387AC1-0AFF-4B09-80A2-0E1265035880}"/>
+    <hyperlink ref="G17" r:id="rId33" xr:uid="{1245DC23-B5EB-4055-B446-16726C778FA2}"/>
+    <hyperlink ref="G18" r:id="rId34" xr:uid="{1217DDB9-52C2-422A-8A1B-09D810B1EDDC}"/>
+    <hyperlink ref="H2" r:id="rId35" xr:uid="{21C64DF6-7CFB-4622-B705-E45DE97F54C3}"/>
+    <hyperlink ref="H3" r:id="rId36" xr:uid="{7615D67B-8115-4CDE-9A36-971CAE6D188C}"/>
+    <hyperlink ref="H4" r:id="rId37" xr:uid="{EEB5BA5E-4DFB-4A7B-ACC9-0909D78EBD39}"/>
+    <hyperlink ref="H5" r:id="rId38" xr:uid="{54982B05-AFA0-41A0-A6D7-85F7EB5120B5}"/>
+    <hyperlink ref="H6" r:id="rId39" xr:uid="{66BE5829-BD1A-48C1-8D52-7602BFF727D3}"/>
+    <hyperlink ref="H7" r:id="rId40" xr:uid="{4E82A843-4CDE-4D45-A6D2-73A90631024D}"/>
+    <hyperlink ref="H8" r:id="rId41" xr:uid="{19E2D800-BA3B-46DF-8B4E-F87BDD487A70}"/>
+    <hyperlink ref="H9" r:id="rId42" xr:uid="{20F0E94E-7680-4E46-ADC6-EFCF6E46EE8E}"/>
+    <hyperlink ref="H10" r:id="rId43" xr:uid="{6F9496C0-8CA4-4CDF-9D84-31A1F640E963}"/>
+    <hyperlink ref="H11" r:id="rId44" xr:uid="{0B141640-F3A7-45E5-A1A0-A4AAB76098BD}"/>
+    <hyperlink ref="H12" r:id="rId45" xr:uid="{3D7CF0F8-FBA9-4294-969E-610715CC9C49}"/>
+    <hyperlink ref="H13" r:id="rId46" xr:uid="{83131CC0-2803-41BC-A556-0751DE525F11}"/>
+    <hyperlink ref="H14" r:id="rId47" xr:uid="{760BD45C-1B1D-4646-918B-A896989D84DE}"/>
+    <hyperlink ref="H15" r:id="rId48" xr:uid="{E7EC7AB1-459C-4F7D-B9D1-9E4B6E1CF277}"/>
+    <hyperlink ref="H16" r:id="rId49" xr:uid="{58C1C938-00FA-42E3-8713-B0675000BB1E}"/>
+    <hyperlink ref="H17" r:id="rId50" xr:uid="{26F47CA2-B6BE-4086-A44D-13B25B751F3C}"/>
+    <hyperlink ref="H18" r:id="rId51" xr:uid="{1BDEA6F5-86FC-4D8D-BDE5-335306D6C4AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/System_development/Van-Hove/PCB_design/NMR Control Board V 0.4.4/PCB_Control_Board_V_0.4.4_BoM.xlsx
+++ b/System_development/Van-Hove/PCB_design/NMR Control Board V 0.4.4/PCB_Control_Board_V_0.4.4_BoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Compact-NMR\System_development\Van-Hove\PCB_design\NMR Control Board V 0.4.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D575A664-CD39-4906-A2AD-C6E71F659FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A66B56C-93A3-4EF2-9D6A-FD753AF5374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +336,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,15 +370,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -380,8 +403,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77BB0EBA-7ABD-4504-8B56-065735F83FAF}" name="Table1" displayName="Table1" ref="A1:H18" totalsRowShown="0" dataCellStyle="Hyperlink">
+  <autoFilter ref="A1:H18" xr:uid="{77BB0EBA-7ABD-4504-8B56-065735F83FAF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{125445A2-3E64-47DE-B26B-B36D09088CF3}" name="Designator"/>
+    <tableColumn id="2" xr3:uid="{978F1655-82E8-4669-A0DF-8FC026E7C5CF}" name="Component"/>
+    <tableColumn id="3" xr3:uid="{B31F8100-EC13-4F33-9A36-9A86A9F32309}" name="Amount"/>
+    <tableColumn id="4" xr3:uid="{B43A5C30-725D-41B9-ADE9-63C238F6193D}" name="Individual Cost" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D2C286B4-CC55-46B0-8AA4-9B8C5B8E8252}" name="Total Cost" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{05D9E9D4-6FDB-4462-ABB6-67CC55FED516}" name="Vendor 1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{1351036D-0F08-4053-99CA-5A59FD8F86C2}" name="Vendor 2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{A6791673-9B53-4B1D-9E7C-56277BA3A1DB}" name="Vendor 3" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,18 +740,19 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="146.5703125" customWidth="1"/>
-    <col min="7" max="7" width="168.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,10 +791,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.52</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.52</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -780,10 +817,10 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.77</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.77</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -806,10 +843,10 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1.25</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1.25</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -832,10 +869,10 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>11.55</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>11.55</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -858,10 +895,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>10.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>10.8</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -884,10 +921,10 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4.03</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>4.03</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -910,10 +947,10 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.61</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.61</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -936,10 +973,10 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.25</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.25</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -962,10 +999,10 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.39</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -988,10 +1025,10 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.11</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.33</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1014,10 +1051,10 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.19</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0.38</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1040,10 +1077,10 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.18</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.18</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1066,10 +1103,10 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.19</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.76</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1092,10 +1129,10 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0.4</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1118,10 +1155,10 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.46</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1.38</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1144,10 +1181,10 @@
       <c r="C17">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1.69</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>10.14</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1170,10 +1207,10 @@
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1.84</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>11.04</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1187,10 +1224,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19">
+      <c r="E19" s="4">
         <f>SUM(E2:E18)</f>
         <v>54.78</v>
       </c>
@@ -1251,5 +1288,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId52"/>
+  <tableParts count="1">
+    <tablePart r:id="rId53"/>
+  </tableParts>
 </worksheet>
 </file>